--- a/Assement/Appliedstatistic.xlsx
+++ b/Assement/Appliedstatistic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dolly\Desktop\Govind\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dolly\Desktop\da\Assement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{640CDA52-3DBA-4278-BF29-F8DE327ADA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2923684-E3DB-475A-A276-04DC5E569287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E50DE2C2-7417-4DC4-843F-F5F74FCB4BF1}"/>
   </bookViews>
@@ -34,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>2007 Figures</t>
   </si>
@@ -161,15 +183,25 @@
   </si>
   <si>
     <t>G3.10</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -211,15 +243,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EF73A2-7D7C-46FB-ABCE-CB4AFCEB2739}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,28 +576,33 @@
     <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -589,272 +624,346 @@
       <c r="H2">
         <v>2007</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <f>_xlfn.VAR.P(B3:B14)</f>
         <v>5104166.666666667</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="K2">
+        <v>2007</v>
+      </c>
+      <c r="L2" s="6" cm="1">
+        <f t="array" ref="L2">_xlfn.MODE.MULT(B3:B14)</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>39083</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>14000</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>39448</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>10600</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>39814</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>20000</v>
       </c>
       <c r="H3">
-        <v>2007</v>
-      </c>
-      <c r="I3" s="4">
+        <v>2008</v>
+      </c>
+      <c r="I3" s="3">
         <f>_xlfn.VAR.P(D3:D14)</f>
         <v>4785208.333333333</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="K3">
+        <v>2008</v>
+      </c>
+      <c r="L3" s="6" cm="1">
+        <f t="array" ref="L3">_xlfn.MODE.MULT(D3:D14)</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>39114</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>13000</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>39479</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>13900</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>39845</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>15600</v>
       </c>
       <c r="H4">
         <v>2009</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <f>_xlfn.VAR.P(F3:F14)</f>
         <v>4296388.888888889</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="K4">
+        <v>2009</v>
+      </c>
+      <c r="L4" s="6" cm="1">
+        <f t="array" ref="L4">_xlfn.MODE.MULT(F3:F14)</f>
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>39142</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>12000</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>39508</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>13700</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>39873</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>13200</v>
       </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>39173</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>15000</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>39539</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>16400</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>39904</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>15400</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="H6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>39203</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>16000</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>39569</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>13800</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>39934</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>18500</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="H7">
+        <v>2007</v>
+      </c>
+      <c r="I7" s="6">
+        <f>HARMEAN(B3:B14)</f>
+        <v>13856.277201841287</v>
+      </c>
+      <c r="K7">
+        <v>2007</v>
+      </c>
+      <c r="L7" s="4">
+        <f>MEDIAN(B3:B14)</f>
+        <v>14250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>39234</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>9500</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>39600</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>12400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>39965</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>12800</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+      <c r="H8">
+        <v>2008</v>
+      </c>
+      <c r="I8" s="6">
+        <f>HARMEAN(D3:D14)</f>
+        <v>13908.226388331046</v>
+      </c>
+      <c r="K8">
+        <v>2008</v>
+      </c>
+      <c r="L8" s="4">
+        <f>MEDIAN(D3:D14)</f>
+        <v>13850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>39264</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>14500</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>39630</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>14000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>39995</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>16500</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+      <c r="H9">
+        <v>2009</v>
+      </c>
+      <c r="I9" s="6">
+        <f>HARMEAN(F3:F14)</f>
+        <v>15359.260846691701</v>
+      </c>
+      <c r="K9">
+        <v>2009</v>
+      </c>
+      <c r="L9" s="4">
+        <f>MEDIAN(F3:F14)</f>
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>39295</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>13500</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>39661</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>13000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>40026</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>14500</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>39326</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>12500</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>39692</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>17600</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>40057</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>17500</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>39356</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>18000</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>39722</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>12600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>40087</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>14800</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>39387</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>16000</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>39753</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>18700</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>40118</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>13800</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>39417</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>17000</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>39783</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>14000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>40148</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>14800</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -871,22 +980,22 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
